--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value265.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value265.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6227243554918771</v>
+        <v>1.686774611473083</v>
       </c>
       <c r="B1">
-        <v>0.7729922948282838</v>
+        <v>2.125629425048828</v>
       </c>
       <c r="C1">
-        <v>1.078636693684749</v>
+        <v>2.298197507858276</v>
       </c>
       <c r="D1">
-        <v>2.716017156842482</v>
+        <v>2.653293371200562</v>
       </c>
       <c r="E1">
-        <v>3.357414040954094</v>
+        <v>3.050495624542236</v>
       </c>
     </row>
   </sheetData>
